--- a/日経社説ー春秋/「２国家共存」を放棄するな.xlsx
+++ b/日経社説ー春秋/「２国家共存」を放棄するな.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywu\Desktop\translation\日経社説ー春秋\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,72 +19,113 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>隣り合う</t>
-  </si>
-  <si>
-    <t>唯一</t>
-  </si>
-  <si>
-    <t>暫定</t>
-  </si>
-  <si>
-    <t>悲願</t>
-  </si>
-  <si>
-    <t>入植地</t>
-  </si>
-  <si>
-    <t>肩入れ</t>
-  </si>
-  <si>
-    <t>となりあう</t>
-  </si>
-  <si>
-    <t>互いに隣となる。互いに接する。</t>
-  </si>
-  <si>
-    <t>ゆいいつ</t>
-  </si>
-  <si>
-    <t>ただ一つだけでそれ以外にはないこと。</t>
-  </si>
-  <si>
-    <t>ざんてい</t>
-  </si>
-  <si>
-    <t>正式に決定するまで、仮に定めること。</t>
-  </si>
-  <si>
-    <t>ひがん</t>
-  </si>
-  <si>
-    <t>どんなことがあっても成し遂げようと思う悲壮な願い。</t>
-  </si>
-  <si>
-    <t>にゅうしょくち</t>
-  </si>
-  <si>
-    <t>開拓のために移住した地・植民が移住した地の事を指す。</t>
-  </si>
-  <si>
-    <t>かたいれ</t>
-  </si>
-  <si>
-    <t>贔屓にしたり、援助したりするｋと。肩を入れること。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>パレスチナ人が自分たちの国を持ち、隣り合うイスラエルと共存する。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長い対立と流血の末に辿り着いた。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>パレスチナ問題を解決に導く平和の道である。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これを放棄してはならない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>イスラエルとアラブ諸国は、１９４８年のイスラエル建国以来、何度も戦火を交えてきた。　</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>パレスチナ紛争はイスラエルとアラブの対立の核心にある問題だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>パレスチナ国家の樹立による平和に道を開いた９３年のパレスチナ算定自治宣言を仲介したのは米国だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>その後のイスラエルとパレスチナの交渉は順調ではなかったが、独立国家はパレスチナ人の悲願である。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反発は当然だろう。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>イスラエルに影響力を持つ米国が、２国家共存の旗を降ろせば、イスラエルによる占領地の固定化を許すことになりかねない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ネタニヤフ政権はヨルダン川西岸などへの入植地拡大を続けている。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>その撤去は一段と難しくなる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心配なのは、トランプ大統領が米国大使館をエルサレムに移す意欲を見せていることだ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>エルサレムはユダヤ教、キリスト教、イスラム教それぞれの聖地だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>イスラエルは６７年に東エルサレムを占領した。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>エルサレムを「永久の首都」と主張するが、国際社会は認めていない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日米はじめ、各国はテルアビブ大使館を置いている。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米国が大使館を一方的にエルサレムに移せば、イスラム政界全体の怒りを招くだろう。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>トランプ大統領とネタニヤフ首相は弾道ミサイルの開発を続けるイランへ厳しく臨む考えで一致した。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米政権のイスラエルへの過度の肩入れが中東の緊張を高めることにならないか懸念する。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米国のトランプ大統領がイスラエルのネタニヤフ首相との共同記者会見で「２国家でも、１国家でも、双方が望む方でいい」と語り、パレスチナ国家とイスラエルの「２国家共存」に拘らない考えを示した。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>２国家共存をパレスチナ問題の唯一の解決策としてきた米歴代政策からの唐突な転換である。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -113,11 +149,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -175,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,7 +249,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,94 +426,140 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" customWidth="1"/>
+    <col min="1" max="1" width="80.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="43.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="40.5">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="27">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="27">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="10" spans="1:1" ht="27">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="12" spans="1:1" ht="27">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="21" spans="1:1" ht="27">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>